--- a/mcmaster_excel/Sanitary_Extra-Wide_Truss_Head_Screws.xlsx
+++ b/mcmaster_excel/Sanitary_Extra-Wide_Truss_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,163 +434,133 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Style</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Size,mm</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Each</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Drive</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>316L Stainless Steel</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Lg., mm</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>HeadDia., mm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>HeadHt., mm</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Wrench Flats</t>
+          <t>Style</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Size,mm</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>97133A110</t>
-        </is>
-      </c>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>$9.96</t>
+          <t>Each</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>316L Stainless Steel</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Wrench Flats</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Wrench Flats</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>70,000</t>
@@ -598,15 +568,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>97133A120</t>
+          <t>97133A110</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>9.96</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>$9.96</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -616,7 +590,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -651,15 +625,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>97133A130</t>
+          <t>97133A120</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10.12</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -669,19 +647,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>2</t>
@@ -704,15 +682,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>97133A140</t>
+          <t>97133A130</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10.20</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -722,7 +704,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -757,15 +739,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>97133A150</t>
+          <t>97133A140</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10.42</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -775,18 +761,54 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Wrench Flats</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>97133A150</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -839,7 +861,11 @@
           <t>10.36</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -892,7 +918,11 @@
           <t>10.36</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -945,7 +975,11 @@
           <t>10.54</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -998,7 +1032,11 @@
           <t>10.64</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -1051,7 +1089,11 @@
           <t>10.70</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -1061,18 +1103,54 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Wrench Flats</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>97133A220</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>M5 × 0.8 mm</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -1082,7 +1160,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1117,15 +1195,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>97133A220</t>
+          <t>97133A230</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>10.92</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -1135,34 +1217,34 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Wrench Flats</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Wrench Flats</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>70,000</t>
@@ -1170,15 +1252,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>97133A230</t>
+          <t>97133A240</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>11.32</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -1188,7 +1274,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1223,15 +1309,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>97133A240</t>
+          <t>97133A250</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>11.48</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -1241,7 +1331,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1276,15 +1366,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>97133A250</t>
+          <t>97133A260</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>11.76</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -1294,7 +1388,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1304,12 +1398,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1319,7 +1413,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1329,15 +1423,19 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>97133A260</t>
+          <t>97133A270</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>11.98</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -1347,18 +1445,54 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Wrench Flats</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>97133A280</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>12.12</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -1368,7 +1502,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1403,15 +1537,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>97133A270</t>
+          <t>97133A290</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>11.80</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -1421,34 +1559,34 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Wrench Flats</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Wrench Flats</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>70,000</t>
@@ -1456,15 +1594,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>97133A280</t>
+          <t>97133A310</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>12.12</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -1474,7 +1616,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1509,15 +1651,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>97133A290</t>
+          <t>97133A320</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>12.44</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -1527,7 +1673,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1537,7 +1683,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1552,7 +1698,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1562,15 +1708,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>97133A310</t>
+          <t>97133A330</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -1580,19 +1730,19 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>5</t>
@@ -1605,7 +1755,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1615,15 +1765,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>97133A320</t>
+          <t>97133A340</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>13.24</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -1633,18 +1787,54 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Wrench Flats</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>97133A350</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
           <t>M8 × 1.25 mm</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -1654,7 +1844,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1689,15 +1879,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>97133A330</t>
+          <t>97133A360</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>12.24</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -1707,7 +1901,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1742,15 +1936,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>97133A340</t>
+          <t>97133A370</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>12.60</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -1770,12 +1968,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1785,7 +1983,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1795,15 +1993,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>97133A350</t>
+          <t>97133A380</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>13.20</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
+          <t>16.56</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -1823,12 +2025,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1838,7 +2040,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1848,15 +2050,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>97133A360</t>
+          <t>97133A390</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>13.64</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -1876,12 +2082,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1891,7 +2097,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1901,15 +2107,19 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>97133A370</t>
+          <t>97133A410</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>13.82</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
+          <t>17.48</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -1919,18 +2129,54 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Wrench Flats</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>97133A420</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
           <t>M10 × 1.5 mm</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -1940,7 +2186,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1950,12 +2196,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1965,7 +2211,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1975,15 +2221,19 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>97133A380</t>
+          <t>97133A430</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>16.56</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
+          <t>20.84</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>M12 × 1.75 mm</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
@@ -1993,7 +2243,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2003,12 +2253,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2018,7 +2268,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2028,249 +2278,20 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>97133A390</t>
+          <t>97133A440</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>17.08</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr"/>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>M12 × 1.75 mm</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
-        <is>
-          <t>316L Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Wrench Flats</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>97133A410</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>17.48</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>316L Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Wrench Flats</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>97133A420</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>17.86</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>316L Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>M12 × 1.75 mm</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>316L Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Wrench Flats</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>97133A430</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>20.84</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>316L Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Wrench Flats</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>97133A440</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>21.72</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
         <is>
           <t>316L Stainless Steel</t>
         </is>
